--- a/backend/web/reportPHPExcel/template_xlsx.xlsx
+++ b/backend/web/reportPHPExcel/template_xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyl\Documents\OpenServer\domains\localhost\docs\backend\web\reportPHPExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\domains\localhost\dosc_samgups\docs\backend\web\reportPHPExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3C7E0-22B2-4721-80B8-0B956DEAF263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCAD40B-5F39-4695-8FCE-F09AF32F5F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Направление (специальность)</t>
-  </si>
-  <si>
-    <t>Курс</t>
-  </si>
-  <si>
     <t>Дата и время ознакомления</t>
   </si>
   <si>
@@ -67,9 +61,14 @@
       <t xml:space="preserve">
 Отчет ознакомления с документом «{name_doc}».
 Дата размещения документа в системе (https://docs.samgups.ru): {date_report} г.
-Дата завершения ознакомления: {date_confirm_rep} г.
 Отчет сгенерировал: {report_user}</t>
     </r>
+  </si>
+  <si>
+    <t>Ознакомился</t>
+  </si>
+  <si>
+    <t>Цифровой идентификатор ознакомления</t>
   </si>
 </sst>
 </file>
@@ -511,20 +510,20 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -535,13 +534,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
